--- a/FBOOrganized.xlsx
+++ b/FBOOrganized.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="RAW" sheetId="1" r:id="rId2"/>
     <sheet name="1" sheetId="2" r:id="rId3"/>
     <sheet name="2" sheetId="4" r:id="rId4"/>
+    <sheet name="3" sheetId="6" r:id="rId5"/>
+    <sheet name="4" sheetId="5" r:id="rId6"/>
+    <sheet name="5" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="230">
   <si>
     <t>12 Jun 2018 - 14:55:27 CDT</t>
   </si>
@@ -260,9 +263,6 @@
     <t>20,9</t>
   </si>
   <si>
-    <t>12,2</t>
-  </si>
-  <si>
     <t>20,12</t>
   </si>
   <si>
@@ -714,6 +714,12 @@
   </si>
   <si>
     <t>No.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>[[1,2,2,1,3],[2,1,2,2,1],[3,3,1,2,2],[4,3,2,3,2],[5,2,1,2,1],[6,2,3,1,2],[7,1,3,2,2],[8,2,2,3,1],[9,3,2,2,3],[10,1,1,2,2],[11,1,2,3,2],[12,2,3,2,3],[13,3,2,1,2],[14,2,3,2,1],[15,1,2,1,2],[16,2,1,3,2],[17,2,1,2,3],[18,2,2,1,1],[19,3,3,2,2],[20,2,2,3,3],[21,1,2,2,3],[22,2,1,1,2],[23,3,2,2,1],[24,2,3,3,2]]+BM2</t>
   </si>
 </sst>
 </file>
@@ -762,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -796,13 +802,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -825,6 +840,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1109,41 +1130,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="16" width="8.88671875" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="G1">
         <v>1</v>
       </c>
       <c r="H1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3">
+        <v>1</v>
+      </c>
+      <c r="M1" s="3">
+        <v>2</v>
+      </c>
+      <c r="N1" s="3">
+        <v>3</v>
+      </c>
+      <c r="O1" s="3">
+        <v>4</v>
+      </c>
+      <c r="P1" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1168,8 +1216,32 @@
       <c r="H2" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I2" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J2" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K2" s="6">
+        <v>23</v>
+      </c>
+      <c r="L2" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2</v>
+      </c>
+      <c r="N2" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="O2" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P2" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1194,8 +1266,32 @@
       <c r="H3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I3" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K3" s="6">
+        <v>23</v>
+      </c>
+      <c r="L3" s="6">
+        <v>17</v>
+      </c>
+      <c r="M3" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N3" s="6">
+        <v>8</v>
+      </c>
+      <c r="O3" s="11">
+        <v>1</v>
+      </c>
+      <c r="P3" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1220,8 +1316,32 @@
       <c r="H4" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I4" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J4" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K4" s="6">
+        <v>23</v>
+      </c>
+      <c r="L4" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M4" s="6">
+        <v>3</v>
+      </c>
+      <c r="N4" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="O4" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P4" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1246,8 +1366,32 @@
       <c r="H5" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I5" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K5" s="6">
+        <v>23</v>
+      </c>
+      <c r="L5" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O5" s="11">
+        <v>17</v>
+      </c>
+      <c r="P5" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1272,8 +1416,32 @@
       <c r="H6" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J6" s="6">
+        <v>8</v>
+      </c>
+      <c r="K6" s="6">
+        <v>23</v>
+      </c>
+      <c r="L6" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M6" s="11">
+        <v>10</v>
+      </c>
+      <c r="N6" s="11">
+        <v>5</v>
+      </c>
+      <c r="O6" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P6" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1298,8 +1466,32 @@
       <c r="H7" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="6">
+        <v>2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K7" s="6">
+        <v>23</v>
+      </c>
+      <c r="L7" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M7" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="N7" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O7" s="11">
+        <v>3</v>
+      </c>
+      <c r="P7" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1324,8 +1516,32 @@
       <c r="H8" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I8" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J8" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K8" s="6">
+        <v>23</v>
+      </c>
+      <c r="L8" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M8" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="N8" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O8" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P8" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1350,8 +1566,32 @@
       <c r="H9" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I9" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J9" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K9" s="6">
+        <v>23</v>
+      </c>
+      <c r="L9" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M9" s="11">
+        <v>17</v>
+      </c>
+      <c r="N9" s="11">
+        <v>16</v>
+      </c>
+      <c r="O9" s="11">
+        <v>5</v>
+      </c>
+      <c r="P9" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1376,8 +1616,32 @@
       <c r="H10" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I10" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J10" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K10" s="6">
+        <v>23</v>
+      </c>
+      <c r="L10" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M10" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="N10" s="11">
+        <v>16</v>
+      </c>
+      <c r="O10" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P10" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1402,8 +1666,32 @@
       <c r="H11" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I11" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J11" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K11" s="6">
+        <v>3</v>
+      </c>
+      <c r="L11" s="6">
+        <v>12</v>
+      </c>
+      <c r="M11" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="N11" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O11" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P11" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1428,8 +1716,32 @@
       <c r="H12" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I12" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3</v>
+      </c>
+      <c r="K12" s="6">
+        <v>23</v>
+      </c>
+      <c r="L12" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M12" s="6">
+        <v>7</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P12" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1454,8 +1766,32 @@
       <c r="H13" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I13" s="6">
+        <v>3</v>
+      </c>
+      <c r="J13" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K13" s="6">
+        <v>8</v>
+      </c>
+      <c r="L13" s="6">
+        <v>8</v>
+      </c>
+      <c r="M13" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N13" s="10">
+        <v>4</v>
+      </c>
+      <c r="O13" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P13" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -1480,8 +1816,32 @@
       <c r="H14" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I14" s="6">
+        <v>13</v>
+      </c>
+      <c r="J14" s="6">
+        <v>15</v>
+      </c>
+      <c r="K14" s="6">
+        <v>23</v>
+      </c>
+      <c r="L14" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M14" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N14" s="10">
+        <v>13</v>
+      </c>
+      <c r="O14" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P14" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -1506,8 +1866,32 @@
       <c r="H15" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I15" s="6">
+        <v>8</v>
+      </c>
+      <c r="J15" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K15" s="6">
+        <v>6</v>
+      </c>
+      <c r="L15" s="6">
+        <v>10</v>
+      </c>
+      <c r="M15" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N15" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O15" s="11">
+        <v>2</v>
+      </c>
+      <c r="P15" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -1532,8 +1916,32 @@
       <c r="H16" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I16" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J16" s="6">
+        <v>15</v>
+      </c>
+      <c r="K16" s="6">
+        <v>23</v>
+      </c>
+      <c r="L16" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M16" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N16" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O16" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P16" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1558,8 +1966,32 @@
       <c r="H17" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I17" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J17" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K17" s="6">
+        <v>23</v>
+      </c>
+      <c r="L17" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M17" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N17" s="11">
+        <v>16</v>
+      </c>
+      <c r="O17" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P17" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1584,8 +2016,32 @@
       <c r="H18" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I18" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J18" s="6">
+        <v>11</v>
+      </c>
+      <c r="K18" s="6">
+        <v>11</v>
+      </c>
+      <c r="L18" s="6">
+        <v>17</v>
+      </c>
+      <c r="M18" s="6">
+        <v>17</v>
+      </c>
+      <c r="N18" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O18" s="11">
+        <v>8</v>
+      </c>
+      <c r="P18" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -1610,8 +2066,32 @@
       <c r="H19" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I19" s="6">
+        <v>12</v>
+      </c>
+      <c r="J19" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K19" s="6">
+        <v>23</v>
+      </c>
+      <c r="L19" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M19" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N19" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O19" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P19" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -1636,8 +2116,32 @@
       <c r="H20" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I20" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J20" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K20" s="6">
+        <v>23</v>
+      </c>
+      <c r="L20" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M20" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N20" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O20" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P20" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -1662,8 +2166,32 @@
       <c r="H21" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I21" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J21" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K21" s="6">
+        <v>13</v>
+      </c>
+      <c r="L21" s="6">
+        <v>6</v>
+      </c>
+      <c r="M21" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N21" s="10">
+        <v>3</v>
+      </c>
+      <c r="O21" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -1688,8 +2216,32 @@
       <c r="H22" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I22" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J22" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K22" s="6">
+        <v>23</v>
+      </c>
+      <c r="L22" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M22" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N22" s="10">
+        <v>12</v>
+      </c>
+      <c r="O22" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P22" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -1714,8 +2266,32 @@
       <c r="H23" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I23" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J23" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K23" s="6">
+        <v>23</v>
+      </c>
+      <c r="L23" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M23" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N23" s="10">
+        <v>11</v>
+      </c>
+      <c r="O23" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P23" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -1738,10 +2314,34 @@
         <v>11</v>
       </c>
       <c r="H24" s="6">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I24" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J24" s="6">
+        <v>12</v>
+      </c>
+      <c r="K24" s="6">
+        <v>23</v>
+      </c>
+      <c r="L24" s="6">
+        <v>2</v>
+      </c>
+      <c r="M24" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N24" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O24" s="11">
+        <v>10</v>
+      </c>
+      <c r="P24" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -1766,8 +2366,32 @@
       <c r="H25" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I25" s="6">
+        <v>17</v>
+      </c>
+      <c r="J25" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K25" s="6">
+        <v>23</v>
+      </c>
+      <c r="L25" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M25" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N25" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O25" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P25" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -1792,8 +2416,32 @@
       <c r="H26" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I26" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J26" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K26" s="6">
+        <v>23</v>
+      </c>
+      <c r="L26" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M26" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N26" s="11">
+        <v>16</v>
+      </c>
+      <c r="O26" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P26" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -1816,10 +2464,34 @@
         <v>24.5</v>
       </c>
       <c r="H27" s="6">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I27" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J27" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K27" s="6">
+        <v>23</v>
+      </c>
+      <c r="L27" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M27" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N27" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O27" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P27" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -1844,8 +2516,32 @@
       <c r="H28" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I28" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J28" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K28" s="6">
+        <v>23</v>
+      </c>
+      <c r="L28" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M28" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N28" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O28" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P28" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -1870,8 +2566,32 @@
       <c r="H29" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I29" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J29" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K29" s="6">
+        <v>23</v>
+      </c>
+      <c r="L29" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M29" s="6">
+        <v>17</v>
+      </c>
+      <c r="N29" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O29" s="11">
+        <v>17</v>
+      </c>
+      <c r="P29" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -1894,10 +2614,34 @@
         <v>4</v>
       </c>
       <c r="H30" s="6">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I30" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J30" s="6">
+        <v>7</v>
+      </c>
+      <c r="K30" s="6">
+        <v>9</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1</v>
+      </c>
+      <c r="M30" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N30" s="10">
+        <v>9</v>
+      </c>
+      <c r="O30" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P30" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -1922,8 +2666,32 @@
       <c r="H31" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K31" s="6">
+        <v>23</v>
+      </c>
+      <c r="L31" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M31" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N31" s="10">
+        <v>7</v>
+      </c>
+      <c r="O31" s="11">
+        <v>7</v>
+      </c>
+      <c r="P31" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>2</v>
       </c>
@@ -1948,8 +2716,32 @@
       <c r="H32" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I32" s="6">
+        <v>5</v>
+      </c>
+      <c r="J32" s="6">
+        <v>15</v>
+      </c>
+      <c r="K32" s="6">
+        <v>23</v>
+      </c>
+      <c r="L32" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M32" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N32" s="10">
+        <v>16</v>
+      </c>
+      <c r="O32" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P32" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>2</v>
       </c>
@@ -1974,8 +2766,32 @@
       <c r="H33" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I33" s="6">
+        <v>7</v>
+      </c>
+      <c r="J33" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K33" s="6">
+        <v>23</v>
+      </c>
+      <c r="L33" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M33" s="6">
+        <v>12</v>
+      </c>
+      <c r="N33" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O33" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P33" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>2</v>
       </c>
@@ -2000,8 +2816,32 @@
       <c r="H34" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I34" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J34" s="6">
+        <v>14</v>
+      </c>
+      <c r="K34" s="6">
+        <v>23</v>
+      </c>
+      <c r="L34" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M34" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N34" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O34" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P34" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>2</v>
       </c>
@@ -2026,8 +2866,32 @@
       <c r="H35" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I35" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J35" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K35" s="6">
+        <v>23</v>
+      </c>
+      <c r="L35" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M35" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N35" s="11">
+        <v>16</v>
+      </c>
+      <c r="O35" s="11">
+        <v>17</v>
+      </c>
+      <c r="P35" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>2</v>
       </c>
@@ -2052,8 +2916,32 @@
       <c r="H36" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I36" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J36" s="6">
+        <v>13</v>
+      </c>
+      <c r="K36" s="6">
+        <v>23</v>
+      </c>
+      <c r="L36" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M36" s="6">
+        <v>17</v>
+      </c>
+      <c r="N36" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O36" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P36" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>2</v>
       </c>
@@ -2078,8 +2966,32 @@
       <c r="H37" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I37" s="6">
+        <v>4</v>
+      </c>
+      <c r="J37" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K37" s="6">
+        <v>23</v>
+      </c>
+      <c r="L37" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M37" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N37" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O37" s="11">
+        <v>11</v>
+      </c>
+      <c r="P37" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>2</v>
       </c>
@@ -2104,8 +3016,32 @@
       <c r="H38" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I38" s="6">
+        <v>6</v>
+      </c>
+      <c r="J38" s="6">
+        <v>15</v>
+      </c>
+      <c r="K38" s="6">
+        <v>5</v>
+      </c>
+      <c r="L38" s="6">
+        <v>17</v>
+      </c>
+      <c r="M38" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N38" s="10">
+        <v>6</v>
+      </c>
+      <c r="O38" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P38" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>2</v>
       </c>
@@ -2130,8 +3066,32 @@
       <c r="H39" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I39" s="6">
+        <v>11</v>
+      </c>
+      <c r="J39" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K39" s="6">
+        <v>23</v>
+      </c>
+      <c r="L39" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M39" s="6">
+        <v>4</v>
+      </c>
+      <c r="N39" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O39" s="11">
+        <v>17</v>
+      </c>
+      <c r="P39" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>2</v>
       </c>
@@ -2156,8 +3116,32 @@
       <c r="H40" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I40" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J40" s="6">
+        <v>15</v>
+      </c>
+      <c r="K40" s="6">
+        <v>14</v>
+      </c>
+      <c r="L40" s="6">
+        <v>3</v>
+      </c>
+      <c r="M40" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N40" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O40" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P40" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>2</v>
       </c>
@@ -2182,8 +3166,32 @@
       <c r="H41" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I41" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J41" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K41" s="6">
+        <v>23</v>
+      </c>
+      <c r="L41" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M41" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N41" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O41" s="11">
+        <v>17</v>
+      </c>
+      <c r="P41" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -2208,8 +3216,32 @@
       <c r="H42" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I42" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J42" s="6">
+        <v>6</v>
+      </c>
+      <c r="K42" s="6">
+        <v>14</v>
+      </c>
+      <c r="L42" s="6">
+        <v>16</v>
+      </c>
+      <c r="M42" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N42" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O42" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P42" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>2</v>
       </c>
@@ -2234,8 +3266,32 @@
       <c r="H43" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I43" s="6">
+        <v>10</v>
+      </c>
+      <c r="J43" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K43" s="6">
+        <v>23</v>
+      </c>
+      <c r="L43" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M43" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N43" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O43" s="11">
+        <v>16</v>
+      </c>
+      <c r="P43" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>2</v>
       </c>
@@ -2260,8 +3316,32 @@
       <c r="H44" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I44" s="6">
+        <v>17</v>
+      </c>
+      <c r="J44" s="6">
+        <v>15</v>
+      </c>
+      <c r="K44" s="6">
+        <v>23</v>
+      </c>
+      <c r="L44" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M44" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N44" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O44" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P44" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>2</v>
       </c>
@@ -2286,8 +3366,32 @@
       <c r="H45" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I45" s="6">
+        <v>16</v>
+      </c>
+      <c r="J45" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K45" s="6">
+        <v>14</v>
+      </c>
+      <c r="L45" s="6">
+        <v>11</v>
+      </c>
+      <c r="M45" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N45" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O45" s="11">
+        <v>15</v>
+      </c>
+      <c r="P45" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>2</v>
       </c>
@@ -2307,13 +3411,37 @@
         <v>45</v>
       </c>
       <c r="G46" s="6">
-        <v>24.5</v>
+        <v>17</v>
       </c>
       <c r="H46" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I46" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J46" s="6">
+        <v>15</v>
+      </c>
+      <c r="K46" s="6">
+        <v>23</v>
+      </c>
+      <c r="L46" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M46" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N46" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O46" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P46" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>2</v>
       </c>
@@ -2338,8 +3466,32 @@
       <c r="H47" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I47" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J47" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K47" s="6">
+        <v>23</v>
+      </c>
+      <c r="L47" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M47" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N47" s="10">
+        <v>14</v>
+      </c>
+      <c r="O47" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P47" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>2</v>
       </c>
@@ -2359,13 +3511,37 @@
         <v>47</v>
       </c>
       <c r="G48" s="6">
-        <v>24.5</v>
+        <v>17</v>
       </c>
       <c r="H48" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I48" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J48" s="6">
+        <v>1</v>
+      </c>
+      <c r="K48" s="6">
+        <v>12</v>
+      </c>
+      <c r="L48" s="6">
+        <v>17</v>
+      </c>
+      <c r="M48" s="6">
+        <v>5</v>
+      </c>
+      <c r="N48" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O48" s="11">
+        <v>12</v>
+      </c>
+      <c r="P48" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>2</v>
       </c>
@@ -2388,10 +3564,34 @@
         <v>24.5</v>
       </c>
       <c r="H49" s="6">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I49" s="6">
+        <v>17</v>
+      </c>
+      <c r="J49" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K49" s="6">
+        <v>23</v>
+      </c>
+      <c r="L49" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M49" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N49" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O49" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P49" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>2</v>
       </c>
@@ -2411,13 +3611,37 @@
         <v>49</v>
       </c>
       <c r="G50" s="6">
-        <v>24.5</v>
+        <v>17</v>
       </c>
       <c r="H50" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I50" s="6">
+        <v>17</v>
+      </c>
+      <c r="J50" s="6">
+        <v>15</v>
+      </c>
+      <c r="K50" s="6">
+        <v>23</v>
+      </c>
+      <c r="L50" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M50" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N50" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O50" s="11">
+        <v>17</v>
+      </c>
+      <c r="P50" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>2</v>
       </c>
@@ -2442,8 +3666,32 @@
       <c r="H51" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I51" s="6">
+        <v>17</v>
+      </c>
+      <c r="J51" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K51" s="6">
+        <v>23</v>
+      </c>
+      <c r="L51" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M51" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N51" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O51" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P51" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>2</v>
       </c>
@@ -2468,8 +3716,32 @@
       <c r="H52" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I52" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J52" s="6">
+        <v>15</v>
+      </c>
+      <c r="K52" s="6">
+        <v>23</v>
+      </c>
+      <c r="L52" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M52" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N52" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O52" s="11">
+        <v>17</v>
+      </c>
+      <c r="P52" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>2</v>
       </c>
@@ -2494,8 +3766,32 @@
       <c r="H53" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I53" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J53" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K53" s="6">
+        <v>23</v>
+      </c>
+      <c r="L53" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M53" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N53" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O53" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P53" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>2</v>
       </c>
@@ -2515,13 +3811,37 @@
         <v>53</v>
       </c>
       <c r="G54" s="6">
-        <v>24.5</v>
+        <v>17</v>
       </c>
       <c r="H54" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I54" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J54" s="6">
+        <v>4</v>
+      </c>
+      <c r="K54" s="6">
+        <v>23</v>
+      </c>
+      <c r="L54" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M54" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N54" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O54" s="11">
+        <v>17</v>
+      </c>
+      <c r="P54" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>2</v>
       </c>
@@ -2546,8 +3866,32 @@
       <c r="H55" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I55" s="6">
+        <v>17</v>
+      </c>
+      <c r="J55" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K55" s="6">
+        <v>23</v>
+      </c>
+      <c r="L55" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M55" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N55" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O55" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P55" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -2570,10 +3914,34 @@
         <v>24.5</v>
       </c>
       <c r="H56" s="6">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I56" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J56" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K56" s="6">
+        <v>14</v>
+      </c>
+      <c r="L56" s="6">
+        <v>9</v>
+      </c>
+      <c r="M56" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N56" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O56" s="11">
+        <v>4</v>
+      </c>
+      <c r="P56" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -2598,8 +3966,32 @@
       <c r="H57" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I57" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J57" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K57" s="6">
+        <v>23</v>
+      </c>
+      <c r="L57" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M57" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N57" s="10">
+        <v>10</v>
+      </c>
+      <c r="O57" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P57" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>3</v>
       </c>
@@ -2624,8 +4016,32 @@
       <c r="H58" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I58" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J58" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K58" s="6">
+        <v>2</v>
+      </c>
+      <c r="L58" s="6">
+        <v>4</v>
+      </c>
+      <c r="M58" s="6">
+        <v>11</v>
+      </c>
+      <c r="N58" s="6">
+        <v>15</v>
+      </c>
+      <c r="O58" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P58" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>3</v>
       </c>
@@ -2650,8 +4066,32 @@
       <c r="H59" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I59" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J59" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K59" s="6">
+        <v>23</v>
+      </c>
+      <c r="L59" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M59" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N59" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O59" s="11">
+        <v>17</v>
+      </c>
+      <c r="P59" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>3</v>
       </c>
@@ -2676,8 +4116,32 @@
       <c r="H60" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I60" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J60" s="6">
+        <v>5</v>
+      </c>
+      <c r="K60" s="6">
+        <v>7</v>
+      </c>
+      <c r="L60" s="6">
+        <v>17</v>
+      </c>
+      <c r="M60" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N60" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O60" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P60" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>3</v>
       </c>
@@ -2702,8 +4166,32 @@
       <c r="H61" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I61" s="6">
+        <v>15</v>
+      </c>
+      <c r="J61" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K61" s="6">
+        <v>23</v>
+      </c>
+      <c r="L61" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M61" s="6">
+        <v>6</v>
+      </c>
+      <c r="N61" s="11">
+        <v>24</v>
+      </c>
+      <c r="O61" s="11">
+        <v>14</v>
+      </c>
+      <c r="P61" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>3</v>
       </c>
@@ -2728,8 +4216,32 @@
       <c r="H62" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I62" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J62" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K62" s="6">
+        <v>23</v>
+      </c>
+      <c r="L62" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M62" s="6">
+        <v>17</v>
+      </c>
+      <c r="N62" s="6">
+        <v>16</v>
+      </c>
+      <c r="O62" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P62" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>3</v>
       </c>
@@ -2754,8 +4266,32 @@
       <c r="H63" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I63" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J63" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K63" s="6">
+        <v>4</v>
+      </c>
+      <c r="L63" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M63" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N63" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O63" s="11">
+        <v>6</v>
+      </c>
+      <c r="P63" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>3</v>
       </c>
@@ -2780,8 +4316,32 @@
       <c r="H64" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I64" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J64" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K64" s="6">
+        <v>23</v>
+      </c>
+      <c r="L64" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M64" s="6">
+        <v>17</v>
+      </c>
+      <c r="N64" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O64" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P64" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>3</v>
       </c>
@@ -2806,8 +4366,32 @@
       <c r="H65" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I65" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J65" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K65" s="6">
+        <v>23</v>
+      </c>
+      <c r="L65" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M65" s="6">
+        <v>17</v>
+      </c>
+      <c r="N65" s="6">
+        <v>16</v>
+      </c>
+      <c r="O65" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P65" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>3</v>
       </c>
@@ -2827,13 +4411,37 @@
         <v>65</v>
       </c>
       <c r="G66" s="6">
-        <v>24.5</v>
+        <v>17</v>
       </c>
       <c r="H66" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I66" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J66" s="6">
+        <v>10</v>
+      </c>
+      <c r="K66" s="6">
+        <v>14</v>
+      </c>
+      <c r="L66" s="6">
+        <v>5</v>
+      </c>
+      <c r="M66" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N66" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O66" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P66" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>3</v>
       </c>
@@ -2858,8 +4466,32 @@
       <c r="H67" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I67" s="6">
+        <v>9</v>
+      </c>
+      <c r="J67" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K67" s="6">
+        <v>23</v>
+      </c>
+      <c r="L67" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M67" s="6">
+        <v>9</v>
+      </c>
+      <c r="N67" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O67" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P67" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>3</v>
       </c>
@@ -2879,13 +4511,37 @@
         <v>67</v>
       </c>
       <c r="G68" s="6">
-        <v>24.5</v>
+        <v>17</v>
       </c>
       <c r="H68" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I68" s="6">
+        <v>17</v>
+      </c>
+      <c r="J68" s="6">
+        <v>15</v>
+      </c>
+      <c r="K68" s="6">
+        <v>14</v>
+      </c>
+      <c r="L68" s="6">
+        <v>17</v>
+      </c>
+      <c r="M68" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N68" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O68" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P68" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>3</v>
       </c>
@@ -2910,8 +4566,32 @@
       <c r="H69" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I69" s="6">
+        <v>17</v>
+      </c>
+      <c r="J69" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K69" s="6">
+        <v>23</v>
+      </c>
+      <c r="L69" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M69" s="6">
+        <v>8</v>
+      </c>
+      <c r="N69" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O69" s="11">
+        <v>9</v>
+      </c>
+      <c r="P69" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>3</v>
       </c>
@@ -2931,13 +4611,37 @@
         <v>69</v>
       </c>
       <c r="G70" s="6">
-        <v>24.5</v>
+        <v>17</v>
       </c>
       <c r="H70" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I70" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J70" s="6">
+        <v>15</v>
+      </c>
+      <c r="K70" s="6">
+        <v>23</v>
+      </c>
+      <c r="L70" s="6">
+        <v>17</v>
+      </c>
+      <c r="M70" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N70" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O70" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P70" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>3</v>
       </c>
@@ -2962,8 +4666,32 @@
       <c r="H71" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I71" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J71" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K71" s="6">
+        <v>14</v>
+      </c>
+      <c r="L71" s="6">
+        <v>17</v>
+      </c>
+      <c r="M71" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N71" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O71" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P71" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>3</v>
       </c>
@@ -2983,13 +4711,37 @@
         <v>71</v>
       </c>
       <c r="G72" s="6">
-        <v>24.5</v>
+        <v>17</v>
       </c>
       <c r="H72" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I72" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J72" s="6">
+        <v>9</v>
+      </c>
+      <c r="K72" s="6">
+        <v>23</v>
+      </c>
+      <c r="L72" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M72" s="6">
+        <v>17</v>
+      </c>
+      <c r="N72" s="6">
+        <v>2</v>
+      </c>
+      <c r="O72" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P72" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>3</v>
       </c>
@@ -3014,8 +4766,32 @@
       <c r="H73" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I73" s="6">
+        <v>17</v>
+      </c>
+      <c r="J73" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K73" s="6">
+        <v>14</v>
+      </c>
+      <c r="L73" s="6">
+        <v>13</v>
+      </c>
+      <c r="M73" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N73" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O73" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P73" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>3</v>
       </c>
@@ -3040,8 +4816,32 @@
       <c r="H74" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I74" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J74" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K74" s="6">
+        <v>14</v>
+      </c>
+      <c r="L74" s="6">
+        <v>17</v>
+      </c>
+      <c r="M74" s="6">
+        <v>17</v>
+      </c>
+      <c r="N74" s="6">
+        <v>16</v>
+      </c>
+      <c r="O74" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P74" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>3</v>
       </c>
@@ -3066,8 +4866,32 @@
       <c r="H75" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I75" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J75" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K75" s="6">
+        <v>23</v>
+      </c>
+      <c r="L75" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M75" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N75" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O75" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P75" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>3</v>
       </c>
@@ -3092,8 +4916,32 @@
       <c r="H76" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I76" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J76" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K76" s="10">
+        <v>14</v>
+      </c>
+      <c r="L76" s="6">
+        <v>7</v>
+      </c>
+      <c r="M76" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N76" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O76" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P76" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -3116,10 +4964,34 @@
         <v>24.5</v>
       </c>
       <c r="H77" s="6">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I77" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J77" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K77" s="10">
+        <v>23</v>
+      </c>
+      <c r="L77" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M77" s="6">
+        <v>13</v>
+      </c>
+      <c r="N77" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O77" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P77" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -3139,13 +5011,37 @@
         <v>77</v>
       </c>
       <c r="G78" s="6">
-        <v>24.5</v>
+        <v>17</v>
       </c>
       <c r="H78" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I78" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J78" s="6">
+        <v>2</v>
+      </c>
+      <c r="K78" s="10">
+        <v>14</v>
+      </c>
+      <c r="L78" s="6">
+        <v>15</v>
+      </c>
+      <c r="M78" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N78" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O78" s="11">
+        <v>13</v>
+      </c>
+      <c r="P78" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>3</v>
       </c>
@@ -3168,10 +5064,34 @@
         <v>24.5</v>
       </c>
       <c r="H79" s="6">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I79" s="6">
+        <v>17</v>
+      </c>
+      <c r="J79" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K79" s="10">
+        <v>23</v>
+      </c>
+      <c r="L79" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M79" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N79" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O79" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P79" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>3</v>
       </c>
@@ -3194,10 +5114,34 @@
         <v>24.5</v>
       </c>
       <c r="H80" s="6">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I80" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J80" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K80" s="10">
+        <v>23</v>
+      </c>
+      <c r="L80" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M80" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N80" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O80" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P80" s="11">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>3</v>
       </c>
@@ -3222,8 +5166,32 @@
       <c r="H81" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I81" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J81" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K81" s="10">
+        <v>23</v>
+      </c>
+      <c r="L81" s="6">
+        <v>14</v>
+      </c>
+      <c r="M81" s="6">
+        <v>17</v>
+      </c>
+      <c r="N81" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O81" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P81" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>3</v>
       </c>
@@ -3246,7 +5214,31 @@
         <v>24.5</v>
       </c>
       <c r="H82" s="6">
-        <v>24.5</v>
+        <v>17</v>
+      </c>
+      <c r="I82" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="J82" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="K82" s="6">
+        <v>10</v>
+      </c>
+      <c r="L82" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M82" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="N82" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="O82" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="P82" s="11">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3258,8 +5250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FL14"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BA6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3270,26 +5262,26 @@
   <sheetData>
     <row r="1" spans="1:168" x14ac:dyDescent="0.3">
       <c r="V1" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W1" s="8"/>
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
       <c r="AC1" s="9"/>
       <c r="AD1" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AE1" s="8"/>
       <c r="BG1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BL1" t="s">
         <v>221</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:168" x14ac:dyDescent="0.3">
@@ -3480,7 +5472,7 @@
         <v>18</v>
       </c>
       <c r="BL2" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="BM2" t="s">
         <v>20</v>
@@ -4454,17 +6446,14 @@
       <c r="AZ5">
         <v>1</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5" t="s">
         <v>77</v>
       </c>
-      <c r="BB5">
-        <v>1</v>
-      </c>
-      <c r="BC5" t="s">
+      <c r="BH5" t="s">
         <v>78</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>79</v>
       </c>
       <c r="BI5" t="s">
         <v>16</v>
@@ -4473,10 +6462,10 @@
         <v>17</v>
       </c>
       <c r="BK5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL5" t="s">
         <v>80</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>81</v>
       </c>
       <c r="BM5" t="s">
         <v>20</v>
@@ -4485,7 +6474,7 @@
         <v>21</v>
       </c>
       <c r="BO5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BQ5">
         <v>10</v>
@@ -4595,7 +6584,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -4682,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF6">
         <v>2</v>
@@ -4694,37 +6683,37 @@
         <v>1</v>
       </c>
       <c r="AI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="s">
         <v>85</v>
       </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="AL6">
+        <v>2</v>
+      </c>
+      <c r="AM6" t="s">
         <v>86</v>
       </c>
-      <c r="AL6">
-        <v>2</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AN6">
+        <v>2</v>
+      </c>
+      <c r="AO6" t="s">
         <v>87</v>
       </c>
-      <c r="AN6">
-        <v>2</v>
-      </c>
-      <c r="AO6" t="s">
+      <c r="AP6">
+        <v>2</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>88</v>
       </c>
-      <c r="AP6">
-        <v>2</v>
-      </c>
-      <c r="AQ6" t="s">
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="s">
         <v>89</v>
-      </c>
-      <c r="AR6">
-        <v>1</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>90</v>
       </c>
       <c r="AT6">
         <v>2</v>
@@ -4742,13 +6731,13 @@
         <v>2</v>
       </c>
       <c r="AY6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ6">
+        <v>2</v>
+      </c>
+      <c r="BA6" t="s">
         <v>91</v>
-      </c>
-      <c r="AZ6">
-        <v>2</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>92</v>
       </c>
       <c r="BB6">
         <v>1</v>
@@ -4757,28 +6746,28 @@
         <v>72</v>
       </c>
       <c r="BH6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI6" t="s">
         <v>93</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BJ6" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK6" t="s">
         <v>94</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>17</v>
-      </c>
-      <c r="BK6" t="s">
+      <c r="BL6" t="s">
         <v>95</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BM6" t="s">
         <v>96</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>97</v>
       </c>
       <c r="BN6" t="s">
         <v>21</v>
       </c>
       <c r="BO6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BQ6">
         <v>1</v>
@@ -4885,7 +6874,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -4972,19 +6961,19 @@
         <v>2</v>
       </c>
       <c r="AE7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="s">
         <v>100</v>
       </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="s">
         <v>101</v>
-      </c>
-      <c r="AH7">
-        <v>1</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>102</v>
       </c>
       <c r="AJ7">
         <v>1</v>
@@ -4996,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="AM7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN7">
         <v>2</v>
@@ -5008,13 +6997,13 @@
         <v>1</v>
       </c>
       <c r="AQ7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="s">
         <v>104</v>
-      </c>
-      <c r="AR7">
-        <v>1</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>105</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -5026,37 +7015,37 @@
         <v>2</v>
       </c>
       <c r="AW7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX7">
+        <v>2</v>
+      </c>
+      <c r="AY7" t="s">
         <v>106</v>
       </c>
-      <c r="AX7">
-        <v>2</v>
-      </c>
-      <c r="AY7" t="s">
+      <c r="BH7" t="s">
         <v>107</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK7" t="s">
         <v>108</v>
       </c>
-      <c r="BI7" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>17</v>
-      </c>
-      <c r="BK7" t="s">
+      <c r="BL7" t="s">
         <v>109</v>
       </c>
-      <c r="BL7" t="s">
-        <v>110</v>
-      </c>
       <c r="BM7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BN7" t="s">
         <v>21</v>
       </c>
       <c r="BO7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BQ7">
         <v>1</v>
@@ -5074,16 +7063,16 @@
         <v>62</v>
       </c>
       <c r="BV7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BW7" t="s">
         <v>21</v>
       </c>
       <c r="BX7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY7" t="s">
         <v>112</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>113</v>
       </c>
       <c r="BZ7">
         <v>1</v>
@@ -5101,13 +7090,13 @@
         <v>62</v>
       </c>
       <c r="CE7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="CF7" t="s">
         <v>21</v>
       </c>
       <c r="CG7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CI7">
         <v>1</v>
@@ -5125,13 +7114,13 @@
         <v>62</v>
       </c>
       <c r="CN7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="CO7" t="s">
         <v>21</v>
       </c>
       <c r="CP7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CR7">
         <v>1</v>
@@ -5149,13 +7138,13 @@
         <v>62</v>
       </c>
       <c r="CW7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="CX7" t="s">
         <v>21</v>
       </c>
       <c r="CY7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DA7">
         <v>1</v>
@@ -5256,7 +7245,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -5343,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="AE8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF8">
         <v>2</v>
@@ -5355,67 +7344,67 @@
         <v>2</v>
       </c>
       <c r="AI8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ8">
         <v>1</v>
       </c>
       <c r="AK8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="s">
         <v>119</v>
       </c>
-      <c r="AL8">
-        <v>1</v>
-      </c>
-      <c r="AM8" t="s">
+      <c r="AN8">
+        <v>2</v>
+      </c>
+      <c r="AO8" t="s">
         <v>120</v>
       </c>
-      <c r="AN8">
-        <v>2</v>
-      </c>
-      <c r="AO8" t="s">
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>121</v>
       </c>
-      <c r="AP8">
-        <v>1</v>
-      </c>
-      <c r="AQ8" t="s">
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="s">
         <v>122</v>
       </c>
-      <c r="AR8">
-        <v>1</v>
-      </c>
-      <c r="AS8" t="s">
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8" t="s">
         <v>123</v>
       </c>
-      <c r="AT8">
-        <v>1</v>
-      </c>
-      <c r="AU8" t="s">
+      <c r="AV8">
+        <v>2</v>
+      </c>
+      <c r="AW8" t="s">
         <v>124</v>
       </c>
-      <c r="AV8">
-        <v>2</v>
-      </c>
-      <c r="AW8" t="s">
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8" t="s">
         <v>125</v>
       </c>
-      <c r="AX8">
-        <v>1</v>
-      </c>
-      <c r="AY8" t="s">
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8" t="s">
         <v>126</v>
       </c>
-      <c r="AZ8">
-        <v>1</v>
-      </c>
-      <c r="BA8" t="s">
+      <c r="BB8">
+        <v>2</v>
+      </c>
+      <c r="BC8" t="s">
         <v>127</v>
-      </c>
-      <c r="BB8">
-        <v>2</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>128</v>
       </c>
       <c r="BI8" t="s">
         <v>16</v>
@@ -5424,10 +7413,10 @@
         <v>17</v>
       </c>
       <c r="BK8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BL8" t="s">
         <v>129</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>130</v>
       </c>
       <c r="BM8" t="s">
         <v>20</v>
@@ -5436,7 +7425,7 @@
         <v>21</v>
       </c>
       <c r="BO8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BQ8">
         <v>8</v>
@@ -5460,10 +7449,10 @@
         <v>21</v>
       </c>
       <c r="BX8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BY8" t="s">
         <v>132</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>133</v>
       </c>
       <c r="BZ8">
         <v>1</v>
@@ -5487,7 +7476,7 @@
         <v>21</v>
       </c>
       <c r="CG8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CI8">
         <v>1</v>
@@ -5511,7 +7500,7 @@
         <v>21</v>
       </c>
       <c r="CP8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CR8">
         <v>1</v>
@@ -5535,7 +7524,7 @@
         <v>21</v>
       </c>
       <c r="CY8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="DA8">
         <v>1</v>
@@ -5645,7 +7634,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -5732,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -5750,13 +7739,13 @@
         <v>1</v>
       </c>
       <c r="AK9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9" t="s">
         <v>138</v>
-      </c>
-      <c r="AL9">
-        <v>1</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>139</v>
       </c>
       <c r="AN9">
         <v>2</v>
@@ -5768,31 +7757,31 @@
         <v>2</v>
       </c>
       <c r="AQ9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AR9">
         <v>1</v>
       </c>
       <c r="AS9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="s">
         <v>140</v>
       </c>
-      <c r="AT9">
-        <v>1</v>
-      </c>
-      <c r="AU9" t="s">
+      <c r="AV9">
+        <v>2</v>
+      </c>
+      <c r="AW9" t="s">
         <v>141</v>
       </c>
-      <c r="AV9">
-        <v>2</v>
-      </c>
-      <c r="AW9" t="s">
+      <c r="AX9">
+        <v>2</v>
+      </c>
+      <c r="AY9" t="s">
         <v>142</v>
-      </c>
-      <c r="AX9">
-        <v>2</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>143</v>
       </c>
       <c r="AZ9">
         <v>1</v>
@@ -5804,31 +7793,31 @@
         <v>2</v>
       </c>
       <c r="BC9" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH9" t="s">
         <v>144</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BI9" t="s">
         <v>145</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BJ9" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK9" t="s">
         <v>146</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>17</v>
-      </c>
-      <c r="BK9" t="s">
+      <c r="BL9" t="s">
         <v>147</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BM9" t="s">
         <v>148</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>149</v>
       </c>
       <c r="BN9" t="s">
         <v>21</v>
       </c>
       <c r="BO9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BQ9">
         <v>1</v>
@@ -5935,7 +7924,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -6022,43 +8011,43 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF10">
         <v>2</v>
       </c>
       <c r="AG10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH10">
+        <v>2</v>
+      </c>
+      <c r="AI10" t="s">
         <v>152</v>
       </c>
-      <c r="AH10">
-        <v>2</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AJ10">
+        <v>2</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL10">
+        <v>2</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN10">
+        <v>2</v>
+      </c>
+      <c r="AO10" t="s">
         <v>153</v>
       </c>
-      <c r="AJ10">
-        <v>2</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL10">
-        <v>2</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN10">
-        <v>2</v>
-      </c>
-      <c r="AO10" t="s">
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>154</v>
-      </c>
-      <c r="AP10">
-        <v>1</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>155</v>
       </c>
       <c r="AR10">
         <v>2</v>
@@ -6070,19 +8059,19 @@
         <v>2</v>
       </c>
       <c r="AU10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10" t="s">
         <v>156</v>
       </c>
-      <c r="AV10">
-        <v>1</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>157</v>
-      </c>
       <c r="AX10">
         <v>1</v>
       </c>
       <c r="AY10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AZ10">
         <v>1</v>
@@ -6094,43 +8083,43 @@
         <v>2</v>
       </c>
       <c r="BC10" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD10">
+        <v>1</v>
+      </c>
+      <c r="BE10" t="s">
         <v>158</v>
       </c>
-      <c r="BD10">
-        <v>1</v>
-      </c>
-      <c r="BE10" t="s">
+      <c r="BF10">
+        <v>2</v>
+      </c>
+      <c r="BG10" t="s">
         <v>159</v>
       </c>
-      <c r="BF10">
-        <v>2</v>
-      </c>
-      <c r="BG10" t="s">
+      <c r="BH10" t="s">
         <v>160</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BI10" t="s">
         <v>161</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BJ10" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK10" t="s">
         <v>162</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>17</v>
-      </c>
-      <c r="BK10" t="s">
+      <c r="BL10" t="s">
         <v>163</v>
       </c>
-      <c r="BL10" t="s">
+      <c r="BM10" t="s">
         <v>164</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>165</v>
       </c>
       <c r="BN10" t="s">
         <v>21</v>
       </c>
       <c r="BO10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BQ10">
         <v>1</v>
@@ -6243,7 +8232,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -6330,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF11">
         <v>2</v>
@@ -6348,97 +8337,97 @@
         <v>1</v>
       </c>
       <c r="AK11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AN11">
         <v>2</v>
       </c>
       <c r="AO11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP11">
+        <v>2</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR11">
+        <v>2</v>
+      </c>
+      <c r="AS11" t="s">
         <v>168</v>
       </c>
-      <c r="AP11">
-        <v>2</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AR11">
-        <v>2</v>
-      </c>
-      <c r="AS11" t="s">
+      <c r="AT11">
+        <v>2</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11" t="s">
         <v>169</v>
       </c>
-      <c r="AT11">
-        <v>2</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV11">
-        <v>1</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX11">
-        <v>1</v>
-      </c>
-      <c r="AY11" t="s">
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11" t="s">
         <v>170</v>
       </c>
-      <c r="AZ11">
-        <v>1</v>
-      </c>
-      <c r="BA11" t="s">
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11" t="s">
         <v>171</v>
       </c>
-      <c r="BB11">
-        <v>1</v>
-      </c>
-      <c r="BC11" t="s">
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11" t="s">
         <v>172</v>
       </c>
-      <c r="BD11">
-        <v>1</v>
-      </c>
-      <c r="BE11" t="s">
+      <c r="BF11">
+        <v>2</v>
+      </c>
+      <c r="BG11" t="s">
         <v>173</v>
       </c>
-      <c r="BF11">
-        <v>2</v>
-      </c>
-      <c r="BG11" t="s">
+      <c r="BH11" t="s">
         <v>174</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BI11" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK11" t="s">
         <v>175</v>
       </c>
-      <c r="BI11" t="s">
-        <v>146</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>17</v>
-      </c>
-      <c r="BK11" t="s">
+      <c r="BL11" t="s">
         <v>176</v>
       </c>
-      <c r="BL11" t="s">
-        <v>177</v>
-      </c>
       <c r="BM11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BN11" t="s">
         <v>21</v>
       </c>
       <c r="BO11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BQ11">
         <v>1</v>
@@ -6554,7 +8543,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -6647,37 +8636,37 @@
         <v>2</v>
       </c>
       <c r="AG12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH12">
+        <v>2</v>
+      </c>
+      <c r="AI12" t="s">
         <v>180</v>
       </c>
-      <c r="AH12">
-        <v>2</v>
-      </c>
-      <c r="AI12" t="s">
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="s">
         <v>181</v>
       </c>
-      <c r="AJ12">
-        <v>1</v>
-      </c>
-      <c r="AK12" t="s">
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="s">
         <v>182</v>
       </c>
-      <c r="AL12">
-        <v>1</v>
-      </c>
-      <c r="AM12" t="s">
+      <c r="AN12">
+        <v>2</v>
+      </c>
+      <c r="AO12" t="s">
         <v>183</v>
       </c>
-      <c r="AN12">
-        <v>2</v>
-      </c>
-      <c r="AO12" t="s">
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>184</v>
-      </c>
-      <c r="AP12">
-        <v>1</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>185</v>
       </c>
       <c r="AR12">
         <v>2</v>
@@ -6689,13 +8678,13 @@
         <v>1</v>
       </c>
       <c r="AU12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AV12">
         <v>1</v>
       </c>
       <c r="AW12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -6707,34 +8696,34 @@
         <v>2</v>
       </c>
       <c r="BA12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BB12">
         <v>2</v>
       </c>
       <c r="BC12" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI12" t="s">
         <v>187</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BJ12" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK12" t="s">
         <v>188</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>17</v>
-      </c>
-      <c r="BK12" t="s">
+      <c r="BL12" t="s">
         <v>189</v>
       </c>
-      <c r="BL12" t="s">
+      <c r="BM12" t="s">
         <v>190</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>191</v>
       </c>
       <c r="BN12" t="s">
         <v>21</v>
       </c>
       <c r="BO12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BQ12">
         <v>1</v>
@@ -6844,7 +8833,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -6931,7 +8920,7 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -6943,82 +8932,82 @@
         <v>1</v>
       </c>
       <c r="AI13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL13">
+        <v>2</v>
+      </c>
+      <c r="AM13" t="s">
         <v>194</v>
       </c>
-      <c r="AJ13">
-        <v>1</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL13">
-        <v>2</v>
-      </c>
-      <c r="AM13" t="s">
+      <c r="AN13">
+        <v>2</v>
+      </c>
+      <c r="AO13" t="s">
         <v>195</v>
       </c>
-      <c r="AN13">
-        <v>2</v>
-      </c>
-      <c r="AO13" t="s">
+      <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>196</v>
       </c>
-      <c r="AP13">
-        <v>2</v>
-      </c>
-      <c r="AQ13" t="s">
+      <c r="AR13">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT13">
+        <v>2</v>
+      </c>
+      <c r="AU13" t="s">
         <v>197</v>
       </c>
-      <c r="AR13">
-        <v>1</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT13">
-        <v>2</v>
-      </c>
-      <c r="AU13" t="s">
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13" t="s">
         <v>198</v>
       </c>
-      <c r="AV13">
-        <v>1</v>
-      </c>
-      <c r="AW13" t="s">
+      <c r="AX13">
+        <v>2</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ13">
+        <v>1</v>
+      </c>
+      <c r="BA13" t="s">
         <v>199</v>
       </c>
-      <c r="AX13">
-        <v>2</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>160</v>
-      </c>
-      <c r="AZ13">
-        <v>1</v>
-      </c>
-      <c r="BA13" t="s">
+      <c r="BI13" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK13" t="s">
         <v>200</v>
       </c>
-      <c r="BI13" t="s">
-        <v>188</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>17</v>
-      </c>
-      <c r="BK13" t="s">
+      <c r="BL13" t="s">
         <v>201</v>
       </c>
-      <c r="BL13" t="s">
-        <v>202</v>
-      </c>
       <c r="BM13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BN13" t="s">
         <v>21</v>
       </c>
       <c r="BO13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BQ13">
         <v>1</v>
@@ -7125,7 +9114,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -7218,37 +9207,37 @@
         <v>1</v>
       </c>
       <c r="AG14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AH14">
         <v>1</v>
       </c>
       <c r="AI14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AJ14">
         <v>2</v>
       </c>
       <c r="AK14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL14">
         <v>2</v>
       </c>
       <c r="AM14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN14">
         <v>1</v>
       </c>
       <c r="AO14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>205</v>
-      </c>
-      <c r="AP14">
-        <v>1</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>206</v>
       </c>
       <c r="AR14">
         <v>2</v>
@@ -7260,67 +9249,67 @@
         <v>2</v>
       </c>
       <c r="AU14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14" t="s">
         <v>207</v>
       </c>
-      <c r="AV14">
-        <v>1</v>
-      </c>
-      <c r="AW14" t="s">
+      <c r="AX14">
+        <v>1</v>
+      </c>
+      <c r="AY14" t="s">
         <v>208</v>
       </c>
-      <c r="AX14">
-        <v>1</v>
-      </c>
-      <c r="AY14" t="s">
+      <c r="AZ14">
+        <v>1</v>
+      </c>
+      <c r="BA14" t="s">
         <v>209</v>
       </c>
-      <c r="AZ14">
-        <v>1</v>
-      </c>
-      <c r="BA14" t="s">
+      <c r="BB14">
+        <v>1</v>
+      </c>
+      <c r="BC14" t="s">
         <v>210</v>
       </c>
-      <c r="BB14">
-        <v>1</v>
-      </c>
-      <c r="BC14" t="s">
+      <c r="BD14">
+        <v>1</v>
+      </c>
+      <c r="BE14" t="s">
         <v>211</v>
       </c>
-      <c r="BD14">
-        <v>1</v>
-      </c>
-      <c r="BE14" t="s">
+      <c r="BF14">
+        <v>1</v>
+      </c>
+      <c r="BG14" t="s">
         <v>212</v>
       </c>
-      <c r="BF14">
-        <v>1</v>
-      </c>
-      <c r="BG14" t="s">
+      <c r="BH14" t="s">
         <v>213</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BI14" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK14" t="s">
         <v>214</v>
       </c>
-      <c r="BI14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>17</v>
-      </c>
-      <c r="BK14" t="s">
+      <c r="BL14" t="s">
         <v>215</v>
       </c>
-      <c r="BL14" t="s">
-        <v>216</v>
-      </c>
       <c r="BM14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BN14" t="s">
         <v>21</v>
       </c>
       <c r="BO14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BQ14">
         <v>1</v>
@@ -7443,7 +9432,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7523,6 +9512,9 @@
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -7563,6 +9555,9 @@
       <c r="D6">
         <v>2</v>
       </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
       <c r="I6">
         <v>22</v>
       </c>
@@ -7626,6 +9621,9 @@
       <c r="D9">
         <v>3</v>
       </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -7703,6 +9701,9 @@
       <c r="D13">
         <v>2</v>
       </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
       <c r="G13">
         <v>21</v>
       </c>
@@ -7726,6 +9727,9 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
       <c r="G14">
         <v>12</v>
       </c>
@@ -7823,6 +9827,9 @@
       <c r="D19">
         <v>2</v>
       </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
       <c r="G19">
         <v>5</v>
       </c>
@@ -7846,6 +9853,9 @@
       <c r="D20">
         <v>3</v>
       </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
       <c r="G20">
         <v>3</v>
       </c>
@@ -7906,6 +9916,9 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
       <c r="G23">
         <v>2</v>
       </c>
@@ -7918,10 +9931,13 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -7964,7 +9980,7 @@
   <dimension ref="A1:DI26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7986,6 +10002,9 @@
       <c r="D1" s="2">
         <v>3</v>
       </c>
+      <c r="E1" s="2">
+        <v>17</v>
+      </c>
       <c r="CC1" s="2">
         <v>12</v>
       </c>
@@ -8093,6 +10112,9 @@
       <c r="D2" s="3">
         <v>2</v>
       </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -8107,6 +10129,9 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
       <c r="F3">
         <v>20</v>
       </c>
@@ -8127,6 +10152,9 @@
       <c r="D4" s="3">
         <v>2</v>
       </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
       <c r="F4">
         <v>19</v>
       </c>
@@ -8147,6 +10175,9 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -8161,6 +10192,9 @@
       <c r="D6" s="3">
         <v>3</v>
       </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
       <c r="F6">
         <v>21</v>
       </c>
@@ -8181,6 +10215,9 @@
       <c r="D7" s="3">
         <v>2</v>
       </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
       <c r="F7">
         <v>18</v>
       </c>
@@ -8390,6 +10427,9 @@
       <c r="D17" s="3">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -8529,6 +10569,9 @@
       </c>
       <c r="D24" s="3">
         <v>3</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
       </c>
       <c r="F24">
         <v>15</v>
@@ -8557,6 +10600,1984 @@
       </c>
       <c r="E26" s="7">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="2">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EC26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>16</v>
+      </c>
+      <c r="CW5" s="2">
+        <v>6</v>
+      </c>
+      <c r="CX5" s="2">
+        <v>128</v>
+      </c>
+      <c r="CY5" s="2">
+        <v>36</v>
+      </c>
+      <c r="CZ5" s="2">
+        <v>35</v>
+      </c>
+      <c r="DA5" s="2">
+        <v>8</v>
+      </c>
+      <c r="DB5" s="2">
+        <v>86</v>
+      </c>
+      <c r="DC5" s="2">
+        <v>41</v>
+      </c>
+      <c r="DD5" s="2">
+        <v>25</v>
+      </c>
+      <c r="DE5" s="2">
+        <v>28</v>
+      </c>
+      <c r="DF5" s="2">
+        <v>24</v>
+      </c>
+      <c r="DG5" s="2">
+        <v>42</v>
+      </c>
+      <c r="DH5" s="2">
+        <v>26</v>
+      </c>
+      <c r="DI5" s="2">
+        <v>33</v>
+      </c>
+      <c r="DJ5" s="2">
+        <v>21</v>
+      </c>
+      <c r="DK5" s="2">
+        <v>18</v>
+      </c>
+      <c r="DM5" s="2">
+        <v>18</v>
+      </c>
+      <c r="DN5" s="2">
+        <v>30</v>
+      </c>
+      <c r="DO5" s="2">
+        <v>12</v>
+      </c>
+      <c r="DP5" s="2">
+        <v>14</v>
+      </c>
+      <c r="DQ5" s="2">
+        <v>18</v>
+      </c>
+      <c r="DR5" s="2">
+        <v>13</v>
+      </c>
+      <c r="DS5" s="2">
+        <v>18</v>
+      </c>
+      <c r="DT5" s="2">
+        <v>19</v>
+      </c>
+      <c r="DU5" s="2">
+        <v>14</v>
+      </c>
+      <c r="DV5" s="2">
+        <v>24</v>
+      </c>
+      <c r="DW5" s="2">
+        <v>17</v>
+      </c>
+      <c r="DX5" s="2">
+        <v>19</v>
+      </c>
+      <c r="DY5" s="2">
+        <v>26</v>
+      </c>
+      <c r="DZ5" s="2">
+        <v>9</v>
+      </c>
+      <c r="EC5" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DX26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:128" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:128" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:128" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:128" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <v>11</v>
+      </c>
+      <c r="CR4" s="2">
+        <v>8</v>
+      </c>
+      <c r="CS4" s="2">
+        <v>188</v>
+      </c>
+      <c r="CT4" s="2">
+        <v>28</v>
+      </c>
+      <c r="CU4" s="2">
+        <v>64</v>
+      </c>
+      <c r="CV4" s="2">
+        <v>14</v>
+      </c>
+      <c r="CW4" s="2">
+        <v>93</v>
+      </c>
+      <c r="CX4" s="2">
+        <v>141</v>
+      </c>
+      <c r="CY4" s="2">
+        <v>53</v>
+      </c>
+      <c r="CZ4" s="2">
+        <v>40</v>
+      </c>
+      <c r="DA4" s="2">
+        <v>38</v>
+      </c>
+      <c r="DB4" s="2">
+        <v>37</v>
+      </c>
+      <c r="DD4" s="2">
+        <v>39</v>
+      </c>
+      <c r="DE4" s="2">
+        <v>38</v>
+      </c>
+      <c r="DF4" s="2">
+        <v>33</v>
+      </c>
+      <c r="DH4" s="2">
+        <v>25</v>
+      </c>
+      <c r="DI4" s="2">
+        <v>37</v>
+      </c>
+      <c r="DJ4" s="2">
+        <v>35</v>
+      </c>
+      <c r="DK4" s="2">
+        <v>24</v>
+      </c>
+      <c r="DL4" s="2">
+        <v>17</v>
+      </c>
+      <c r="DM4" s="2">
+        <v>26</v>
+      </c>
+      <c r="DN4" s="2">
+        <v>19</v>
+      </c>
+      <c r="DO4" s="2">
+        <v>32</v>
+      </c>
+      <c r="DP4" s="2">
+        <v>16</v>
+      </c>
+      <c r="DQ4" s="2">
+        <v>19</v>
+      </c>
+      <c r="DR4" s="2">
+        <v>17</v>
+      </c>
+      <c r="DS4" s="2">
+        <v>20</v>
+      </c>
+      <c r="DT4" s="2">
+        <v>15</v>
+      </c>
+      <c r="DU4" s="2">
+        <v>25</v>
+      </c>
+      <c r="DX4" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>22</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
